--- a/src/MoslemToolkit/wwwroot/template/TemplateMuzaki.xlsx
+++ b/src/MoslemToolkit/wwwroot/template/TemplateMuzaki.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Experiment\MoslemToolkit\MoslemToolkit\wwwroot\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Experiment\MoslemToolkit\src\MoslemToolkit\wwwroot\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00643E56-A191-4A34-A371-E44CE2DFE3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F98B1B-77B7-4BD0-898C-5E321532C646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEDB784E-FD15-4623-96D7-5269F310937B}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>AKK001</t>
   </si>
   <si>
-    <t>Nina Herlina</t>
-  </si>
-  <si>
     <t>AKTIF</t>
   </si>
   <si>
@@ -78,515 +75,524 @@
     <t>AKK002</t>
   </si>
   <si>
-    <t>Adi Imam Rusdi</t>
-  </si>
-  <si>
-    <t>Ratna Fitria</t>
-  </si>
-  <si>
     <t>ISTRI</t>
   </si>
   <si>
     <t>AKK003</t>
   </si>
   <si>
-    <t>Aisyah Wan Granie, drg.</t>
-  </si>
-  <si>
-    <t>Muhammad Akbar Wira Maroso</t>
-  </si>
-  <si>
     <t>CUCU</t>
   </si>
   <si>
     <t>AKK006</t>
   </si>
   <si>
-    <t>Abdul Aziz Setiyawan</t>
-  </si>
-  <si>
-    <t>Annisa Ayu Rizky</t>
-  </si>
-  <si>
     <t>AKK007</t>
   </si>
   <si>
-    <t>Arseno</t>
-  </si>
-  <si>
-    <t>Arpita Zafarina Haesah</t>
-  </si>
-  <si>
-    <t>Kalandra Auriga Al fatih</t>
-  </si>
-  <si>
     <t>ANAK</t>
   </si>
   <si>
     <t>AKK008</t>
   </si>
   <si>
-    <t>Abu Dhohir</t>
-  </si>
-  <si>
     <t>BKK009</t>
   </si>
   <si>
-    <t>Bayubadra Megaranda</t>
-  </si>
-  <si>
-    <t>Dian Ary Kusumah</t>
-  </si>
-  <si>
-    <t>Adine Sainandira Yoshe</t>
-  </si>
-  <si>
-    <t>Calisha Nayundari Yoshe</t>
-  </si>
-  <si>
-    <t>Elfrina Sazradiba Yoshe</t>
-  </si>
-  <si>
-    <t>Sakinah Novianti</t>
-  </si>
-  <si>
     <t>KELUARGA</t>
   </si>
   <si>
-    <t>Istatik Yudirahayu</t>
-  </si>
-  <si>
     <t>CKK010</t>
   </si>
   <si>
-    <t>Choirul Sufianto</t>
-  </si>
-  <si>
-    <t>Lulu Vivi Nurdina</t>
-  </si>
-  <si>
-    <t>Sabia Azza Asyifa</t>
-  </si>
-  <si>
-    <t>Sahila</t>
-  </si>
-  <si>
     <t>DKK011</t>
   </si>
   <si>
-    <t>Dani Jaya Sukmana</t>
-  </si>
-  <si>
-    <t>Mellyza</t>
-  </si>
-  <si>
-    <t>Rasyid Pasha Aliza Sukmana</t>
-  </si>
-  <si>
-    <t>Irsyad Pasha Aliza Sukmana</t>
-  </si>
-  <si>
     <t>DKK012</t>
   </si>
   <si>
-    <t>Didik Susilo Widianto</t>
-  </si>
-  <si>
-    <t>Yatin</t>
-  </si>
-  <si>
-    <t>Nauval Abdurrahman</t>
-  </si>
-  <si>
-    <t>Fatimah Khairunnisa</t>
-  </si>
-  <si>
-    <t>Nurul Khodijah</t>
-  </si>
-  <si>
-    <t>Aulia Syifa Madani</t>
-  </si>
-  <si>
-    <t>Aisyah Azzahra</t>
-  </si>
-  <si>
-    <t>Reben</t>
-  </si>
-  <si>
     <t>IBU</t>
   </si>
   <si>
-    <t>Panji</t>
-  </si>
-  <si>
     <t>KEPONAKAN</t>
   </si>
   <si>
     <t>DKK013</t>
   </si>
   <si>
-    <t>Doddy</t>
-  </si>
-  <si>
     <t>AZIZ</t>
   </si>
   <si>
-    <t>Risti Diana Putri</t>
-  </si>
-  <si>
-    <t>Rizqiana Safa Khaira</t>
-  </si>
-  <si>
     <t>DKK014</t>
   </si>
   <si>
-    <t>Dewi Trinanda</t>
-  </si>
-  <si>
-    <t>Faizal Abdul Aziz</t>
-  </si>
-  <si>
-    <t>Bellyza Bilqissari</t>
-  </si>
-  <si>
     <t>DKK015</t>
   </si>
   <si>
-    <t>Repal</t>
-  </si>
-  <si>
-    <t>Dyah (Dhea) Pitaloka</t>
-  </si>
-  <si>
-    <t>Abiyyu Nara</t>
-  </si>
-  <si>
     <t>DKK016</t>
   </si>
   <si>
-    <t>Dediwanto</t>
-  </si>
-  <si>
-    <t>Jiah</t>
-  </si>
-  <si>
-    <t>Jayyan</t>
-  </si>
-  <si>
-    <t>Jidan</t>
-  </si>
-  <si>
     <t>EKK017</t>
   </si>
   <si>
-    <t>Eko Nursusanto</t>
-  </si>
-  <si>
-    <t>Mira Ekasari</t>
-  </si>
-  <si>
-    <t>Sarah Pramiarsih</t>
-  </si>
-  <si>
-    <t>Hafidz Nurhantoko</t>
-  </si>
-  <si>
-    <t>Farah Wahyuningtyas</t>
-  </si>
-  <si>
-    <t>Zahra Fadhilah</t>
-  </si>
-  <si>
-    <t>Niko</t>
-  </si>
-  <si>
     <t>EKK018</t>
   </si>
   <si>
-    <t>Euis Hartati</t>
-  </si>
-  <si>
-    <t>Dimas Daud Probokusumo</t>
-  </si>
-  <si>
-    <t>Budi Nuryanto</t>
-  </si>
-  <si>
     <t>EKK019</t>
   </si>
   <si>
-    <t>Ernanto</t>
-  </si>
-  <si>
-    <t>Sri Wahyuni</t>
-  </si>
-  <si>
-    <t>Salma Renata</t>
-  </si>
-  <si>
-    <t>Nadine Alika</t>
-  </si>
-  <si>
-    <t>Val Aqsha Dirgantara</t>
-  </si>
-  <si>
     <t>HKK020</t>
   </si>
   <si>
-    <t>Hamsyah Munir</t>
-  </si>
-  <si>
-    <t>Ina Winopratiwi</t>
-  </si>
-  <si>
-    <t>Khanza Ainy Belva</t>
-  </si>
-  <si>
-    <t>Kemal Aimy Alfarizqi Lubis</t>
-  </si>
-  <si>
-    <t>Khaira Aimy Nadra</t>
-  </si>
-  <si>
     <t>HKK021</t>
   </si>
   <si>
-    <t>Haryo Radityo</t>
-  </si>
-  <si>
-    <t>Dina Safita</t>
-  </si>
-  <si>
-    <t>Mikail Abdulkarim</t>
-  </si>
-  <si>
-    <t>Setyowati</t>
-  </si>
-  <si>
     <t>MERTUA</t>
   </si>
   <si>
-    <t>Yuli Dwi Hastuti</t>
-  </si>
-  <si>
     <t>HKK022</t>
   </si>
   <si>
-    <t>Hardono Idris</t>
-  </si>
-  <si>
-    <t>Siti Hadijah</t>
-  </si>
-  <si>
-    <t>Novi Ris Indarti</t>
-  </si>
-  <si>
-    <t>Rezha Putra Perdana</t>
-  </si>
-  <si>
-    <t>Faditilan Ramadan Putra Perdana</t>
-  </si>
-  <si>
-    <t>Arsyla Sahnum Dwi Putri</t>
-  </si>
-  <si>
-    <t>Tri Yulia Hartini</t>
-  </si>
-  <si>
-    <t>Danil Yoga Bertoni</t>
-  </si>
-  <si>
     <t>HKK023</t>
   </si>
   <si>
-    <t>Hendro Pritianto</t>
-  </si>
-  <si>
-    <t>Latifa Nidaul Hayati</t>
-  </si>
-  <si>
-    <t>Ratu Shalicha Anindra</t>
-  </si>
-  <si>
-    <t>Emir Abdillah Anindra</t>
-  </si>
-  <si>
-    <t>Hafiz Abdulaziz Anindra</t>
-  </si>
-  <si>
     <t>HKK024</t>
   </si>
   <si>
-    <t>Heryana</t>
-  </si>
-  <si>
-    <t>Emiro Umi Khairah</t>
-  </si>
-  <si>
     <t>NON AKTIF</t>
   </si>
   <si>
-    <t>Fahyudi Salim</t>
-  </si>
-  <si>
-    <t>Safira</t>
-  </si>
-  <si>
     <t>IKK025</t>
   </si>
   <si>
-    <t>Ibn Fadhil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amanda PP </t>
-  </si>
-  <si>
-    <t>Raihana Feyza Jasmine</t>
-  </si>
-  <si>
-    <t>Ariana Mischa Fadhila</t>
-  </si>
-  <si>
     <t>IKK026</t>
   </si>
   <si>
-    <t>Imelda</t>
-  </si>
-  <si>
-    <t>Nayra</t>
-  </si>
-  <si>
-    <t>alm Zismal A</t>
-  </si>
-  <si>
-    <t>alm Faizal A</t>
-  </si>
-  <si>
-    <t>Gilang M</t>
-  </si>
-  <si>
-    <t>Azka N</t>
-  </si>
-  <si>
-    <t>Livia S</t>
-  </si>
-  <si>
     <t>JKK027</t>
   </si>
   <si>
-    <t>Jaka Suryana</t>
-  </si>
-  <si>
-    <t>Yanti Nuryanti</t>
-  </si>
-  <si>
-    <t>Aldoni Bagus Akbar</t>
-  </si>
-  <si>
-    <t>Alfin Bagus Aris</t>
-  </si>
-  <si>
     <t>JKK028</t>
   </si>
   <si>
-    <t>Jodi Mangun Raharjo</t>
-  </si>
-  <si>
-    <t>Ade Darni</t>
-  </si>
-  <si>
-    <t>Shafa Hafizah Jody</t>
-  </si>
-  <si>
-    <t>Zalfa Jacinda Jody</t>
-  </si>
-  <si>
     <t>KKK029</t>
   </si>
   <si>
-    <t>Kartalim</t>
-  </si>
-  <si>
-    <t>Nurchamidah</t>
-  </si>
-  <si>
-    <t>Aril Janura Reinold</t>
-  </si>
-  <si>
-    <t>Kevin Arisandi</t>
-  </si>
-  <si>
     <t>MKK030</t>
   </si>
   <si>
-    <t>Mia Rohamiah Husada</t>
-  </si>
-  <si>
-    <t>Bima Danu Kusumah</t>
-  </si>
-  <si>
-    <t>Putri Elfara Zahrani</t>
-  </si>
-  <si>
-    <t>Syifa Jihannisa Cahyani</t>
-  </si>
-  <si>
-    <t>Eka Sri Rahayu</t>
-  </si>
-  <si>
     <t>MKK031</t>
   </si>
   <si>
-    <t>Makmur</t>
-  </si>
-  <si>
-    <t>Mida</t>
-  </si>
-  <si>
-    <t>Vicky Rahayu Puja Kesuma</t>
-  </si>
-  <si>
-    <t>Vicka Septia Ramadani</t>
-  </si>
-  <si>
-    <t>Muhammad Dzickry</t>
-  </si>
-  <si>
     <t>MKK032</t>
   </si>
   <si>
-    <t>Mochamad Iqbal</t>
-  </si>
-  <si>
-    <t>Zuria Vidya Nindita</t>
-  </si>
-  <si>
-    <t>Azeeva Medina Zahraina</t>
-  </si>
-  <si>
-    <t>Zafran Akbar Assidiq</t>
-  </si>
-  <si>
-    <t>Amasya Luthfia Zara</t>
-  </si>
-  <si>
-    <t>Titin</t>
-  </si>
-  <si>
     <t>Selisih Titipan</t>
   </si>
   <si>
     <t>Sudah Zakat</t>
+  </si>
+  <si>
+    <t>Nama 1</t>
+  </si>
+  <si>
+    <t>Nama 2</t>
+  </si>
+  <si>
+    <t>Nama 3</t>
+  </si>
+  <si>
+    <t>Nama 4</t>
+  </si>
+  <si>
+    <t>Nama 5</t>
+  </si>
+  <si>
+    <t>Nama 6</t>
+  </si>
+  <si>
+    <t>Nama 7</t>
+  </si>
+  <si>
+    <t>Nama 8</t>
+  </si>
+  <si>
+    <t>Nama 9</t>
+  </si>
+  <si>
+    <t>Nama 10</t>
+  </si>
+  <si>
+    <t>Nama 11</t>
+  </si>
+  <si>
+    <t>Nama 12</t>
+  </si>
+  <si>
+    <t>Nama 13</t>
+  </si>
+  <si>
+    <t>Nama 14</t>
+  </si>
+  <si>
+    <t>Nama 15</t>
+  </si>
+  <si>
+    <t>Nama 16</t>
+  </si>
+  <si>
+    <t>Nama 17</t>
+  </si>
+  <si>
+    <t>Nama 18</t>
+  </si>
+  <si>
+    <t>Nama 19</t>
+  </si>
+  <si>
+    <t>Nama 20</t>
+  </si>
+  <si>
+    <t>Nama 21</t>
+  </si>
+  <si>
+    <t>Nama 22</t>
+  </si>
+  <si>
+    <t>Nama 23</t>
+  </si>
+  <si>
+    <t>Nama 24</t>
+  </si>
+  <si>
+    <t>Nama 25</t>
+  </si>
+  <si>
+    <t>Nama 26</t>
+  </si>
+  <si>
+    <t>Nama 27</t>
+  </si>
+  <si>
+    <t>Nama 28</t>
+  </si>
+  <si>
+    <t>Nama 29</t>
+  </si>
+  <si>
+    <t>Nama 30</t>
+  </si>
+  <si>
+    <t>Nama 31</t>
+  </si>
+  <si>
+    <t>Nama 32</t>
+  </si>
+  <si>
+    <t>Nama 33</t>
+  </si>
+  <si>
+    <t>Nama 34</t>
+  </si>
+  <si>
+    <t>Nama 35</t>
+  </si>
+  <si>
+    <t>Nama 36</t>
+  </si>
+  <si>
+    <t>Nama 37</t>
+  </si>
+  <si>
+    <t>Nama 38</t>
+  </si>
+  <si>
+    <t>Nama 39</t>
+  </si>
+  <si>
+    <t>Nama 40</t>
+  </si>
+  <si>
+    <t>Nama 41</t>
+  </si>
+  <si>
+    <t>Nama 42</t>
+  </si>
+  <si>
+    <t>Nama 43</t>
+  </si>
+  <si>
+    <t>Nama 44</t>
+  </si>
+  <si>
+    <t>Nama 45</t>
+  </si>
+  <si>
+    <t>Nama 46</t>
+  </si>
+  <si>
+    <t>Nama 47</t>
+  </si>
+  <si>
+    <t>Nama 48</t>
+  </si>
+  <si>
+    <t>Nama 49</t>
+  </si>
+  <si>
+    <t>Nama 50</t>
+  </si>
+  <si>
+    <t>Nama 51</t>
+  </si>
+  <si>
+    <t>Nama 52</t>
+  </si>
+  <si>
+    <t>Nama 53</t>
+  </si>
+  <si>
+    <t>Nama 54</t>
+  </si>
+  <si>
+    <t>Nama 55</t>
+  </si>
+  <si>
+    <t>Nama 56</t>
+  </si>
+  <si>
+    <t>Nama 57</t>
+  </si>
+  <si>
+    <t>Nama 58</t>
+  </si>
+  <si>
+    <t>Nama 59</t>
+  </si>
+  <si>
+    <t>Nama 60</t>
+  </si>
+  <si>
+    <t>Nama 61</t>
+  </si>
+  <si>
+    <t>Nama 62</t>
+  </si>
+  <si>
+    <t>Nama 63</t>
+  </si>
+  <si>
+    <t>Nama 64</t>
+  </si>
+  <si>
+    <t>Nama 65</t>
+  </si>
+  <si>
+    <t>Nama 66</t>
+  </si>
+  <si>
+    <t>Nama 67</t>
+  </si>
+  <si>
+    <t>Nama 68</t>
+  </si>
+  <si>
+    <t>Nama 69</t>
+  </si>
+  <si>
+    <t>Nama 70</t>
+  </si>
+  <si>
+    <t>Nama 71</t>
+  </si>
+  <si>
+    <t>Nama 72</t>
+  </si>
+  <si>
+    <t>Nama 73</t>
+  </si>
+  <si>
+    <t>Nama 74</t>
+  </si>
+  <si>
+    <t>Nama 75</t>
+  </si>
+  <si>
+    <t>Nama 76</t>
+  </si>
+  <si>
+    <t>Nama 77</t>
+  </si>
+  <si>
+    <t>Nama 78</t>
+  </si>
+  <si>
+    <t>Nama 79</t>
+  </si>
+  <si>
+    <t>Nama 80</t>
+  </si>
+  <si>
+    <t>Nama 81</t>
+  </si>
+  <si>
+    <t>Nama 82</t>
+  </si>
+  <si>
+    <t>Nama 83</t>
+  </si>
+  <si>
+    <t>Nama 84</t>
+  </si>
+  <si>
+    <t>Nama 85</t>
+  </si>
+  <si>
+    <t>Nama 86</t>
+  </si>
+  <si>
+    <t>Nama 87</t>
+  </si>
+  <si>
+    <t>Nama 88</t>
+  </si>
+  <si>
+    <t>Nama 89</t>
+  </si>
+  <si>
+    <t>Nama 90</t>
+  </si>
+  <si>
+    <t>Nama 91</t>
+  </si>
+  <si>
+    <t>Nama 92</t>
+  </si>
+  <si>
+    <t>Nama 93</t>
+  </si>
+  <si>
+    <t>Nama 94</t>
+  </si>
+  <si>
+    <t>Nama 95</t>
+  </si>
+  <si>
+    <t>Nama 96</t>
+  </si>
+  <si>
+    <t>Nama 97</t>
+  </si>
+  <si>
+    <t>Nama 98</t>
+  </si>
+  <si>
+    <t>Nama 99</t>
+  </si>
+  <si>
+    <t>Nama 100</t>
+  </si>
+  <si>
+    <t>Nama 101</t>
+  </si>
+  <si>
+    <t>Nama 102</t>
+  </si>
+  <si>
+    <t>Nama 103</t>
+  </si>
+  <si>
+    <t>Nama 104</t>
+  </si>
+  <si>
+    <t>Nama 105</t>
+  </si>
+  <si>
+    <t>Nama 106</t>
+  </si>
+  <si>
+    <t>Nama 107</t>
+  </si>
+  <si>
+    <t>Nama 108</t>
+  </si>
+  <si>
+    <t>Nama 109</t>
+  </si>
+  <si>
+    <t>Nama 110</t>
+  </si>
+  <si>
+    <t>Nama 111</t>
+  </si>
+  <si>
+    <t>Nama 112</t>
+  </si>
+  <si>
+    <t>Nama 113</t>
+  </si>
+  <si>
+    <t>Nama 114</t>
+  </si>
+  <si>
+    <t>Nama 115</t>
+  </si>
+  <si>
+    <t>Nama 116</t>
+  </si>
+  <si>
+    <t>Nama 117</t>
+  </si>
+  <si>
+    <t>Nama 118</t>
+  </si>
+  <si>
+    <t>Nama 119</t>
+  </si>
+  <si>
+    <t>Nama 120</t>
+  </si>
+  <si>
+    <t>Nama 121</t>
+  </si>
+  <si>
+    <t>Nama 122</t>
+  </si>
+  <si>
+    <t>Nama 123</t>
+  </si>
+  <si>
+    <t>Nama 124</t>
+  </si>
+  <si>
+    <t>Nama 125</t>
+  </si>
+  <si>
+    <t>Nama 126</t>
+  </si>
+  <si>
+    <t>Nama 127</t>
+  </si>
+  <si>
+    <t>Nama 128</t>
+  </si>
+  <si>
+    <t>Nama 129</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -946,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CB716D-45C4-4616-B342-99B5F00E842C}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -1002,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -1019,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
@@ -1052,19 +1058,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1089,19 +1095,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1126,19 +1132,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
@@ -1163,19 +1169,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -1200,19 +1206,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1237,19 +1243,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1274,19 +1280,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1311,19 +1317,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1348,19 +1354,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1385,19 +1391,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1422,19 +1428,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
@@ -1459,19 +1465,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
@@ -1496,19 +1502,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
@@ -1533,19 +1539,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -1570,19 +1576,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1607,19 +1613,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1644,19 +1650,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -1681,19 +1687,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1829,19 +1835,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
@@ -1866,19 +1872,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
@@ -1903,19 +1909,19 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
@@ -1940,19 +1946,19 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
@@ -1977,19 +1983,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -2310,19 +2316,19 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
@@ -2333,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1">
@@ -2349,19 +2355,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
@@ -2372,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
@@ -2388,19 +2394,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
@@ -2411,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1">
@@ -2427,19 +2433,19 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -2464,19 +2470,19 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
@@ -2575,19 +2581,19 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
@@ -2612,19 +2618,19 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
@@ -2649,19 +2655,19 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -2686,19 +2692,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -2723,19 +2729,19 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1">
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -2797,19 +2803,19 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
@@ -2908,19 +2914,19 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
@@ -2945,19 +2951,19 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1">
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
@@ -2982,19 +2988,19 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B55" s="1">
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -3019,19 +3025,19 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
@@ -3056,19 +3062,19 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1">
@@ -3093,19 +3099,19 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B58" s="1">
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1">
@@ -3130,19 +3136,19 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B59" s="1">
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
@@ -3167,19 +3173,19 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
@@ -3204,19 +3210,19 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B61" s="1">
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -3278,19 +3284,19 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B63" s="1">
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
@@ -3315,19 +3321,19 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B64" s="1">
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" s="1">
         <v>1</v>
@@ -3352,19 +3358,19 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1">
@@ -3389,19 +3395,19 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B66" s="1">
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1">
@@ -3426,19 +3432,19 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B67" s="1">
         <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1">
@@ -3463,19 +3469,19 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1">
@@ -3500,19 +3506,19 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B69" s="1">
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1">
@@ -3537,19 +3543,19 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70" s="1">
         <v>1</v>
@@ -3574,19 +3580,19 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B71" s="1">
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
@@ -3611,19 +3617,19 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B72" s="1">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -3648,19 +3654,19 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B73" s="1">
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1">
         <v>1</v>
@@ -3685,19 +3691,19 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B74" s="1">
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1">
         <v>1</v>
@@ -3722,19 +3728,19 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1">
@@ -3759,19 +3765,19 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1">
@@ -3796,19 +3802,19 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1">
@@ -3833,19 +3839,19 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B78" s="1">
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1">
@@ -3870,19 +3876,19 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B79" s="1">
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1">
@@ -3907,19 +3913,19 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1">
@@ -3944,19 +3950,19 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B81" s="1">
         <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1">
@@ -3981,19 +3987,19 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B82" s="1">
         <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1">
@@ -4018,19 +4024,19 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83" s="1">
         <v>1</v>
@@ -4055,19 +4061,19 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B84" s="1">
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -4092,19 +4098,19 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F85" s="1">
         <v>1</v>
@@ -4129,19 +4135,19 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B86" s="1">
         <v>4</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86" s="1">
         <v>1</v>
@@ -4166,19 +4172,19 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B87" s="1">
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F87" s="1">
         <v>1</v>
@@ -4203,19 +4209,19 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1">
@@ -4240,19 +4246,19 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B89" s="1">
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -4275,19 +4281,19 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B90" s="1">
         <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -4310,19 +4316,19 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B91" s="1">
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4345,19 +4351,19 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1">
@@ -4382,19 +4388,19 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B93" s="1">
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1">
@@ -4419,19 +4425,19 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B94" s="1">
         <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1">
@@ -4456,19 +4462,19 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B95" s="1">
         <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1">
@@ -4493,19 +4499,19 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1">
@@ -4530,19 +4536,19 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B97" s="1">
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -4565,19 +4571,19 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B98" s="1">
         <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -4600,19 +4606,19 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -4635,19 +4641,19 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B100" s="1">
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4670,19 +4676,19 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B101" s="1">
         <v>6</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -4705,19 +4711,19 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B102" s="1">
         <v>7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4740,19 +4746,19 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="B103" s="1">
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1">
@@ -4763,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1">
@@ -4779,19 +4785,19 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1">
@@ -4802,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1">
@@ -4818,19 +4824,19 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="B105" s="1">
         <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1">
@@ -4841,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1">
@@ -4857,19 +4863,19 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="B106" s="1">
         <v>4</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1">
@@ -4880,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1">
@@ -4896,19 +4902,19 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1">
@@ -4933,19 +4939,19 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B108" s="1">
         <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1">
@@ -4970,19 +4976,19 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B109" s="1">
         <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1">
@@ -5007,19 +5013,19 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B110" s="1">
         <v>4</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1">
@@ -5044,19 +5050,19 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -5081,19 +5087,19 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="B112" s="1">
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -5118,19 +5124,19 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="B113" s="1">
         <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
@@ -5155,19 +5161,19 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="B114" s="1">
         <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
@@ -5192,19 +5198,19 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B115" s="1">
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1">
@@ -5229,19 +5235,19 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B116" s="1">
         <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1">
@@ -5266,19 +5272,19 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B117" s="1">
         <v>3</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1">
@@ -5303,19 +5309,19 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B118" s="1">
         <v>4</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1">
@@ -5340,19 +5346,19 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B119" s="1">
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1">
@@ -5377,19 +5383,19 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1">
@@ -5414,19 +5420,19 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="B121" s="1">
         <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1">
@@ -5451,19 +5457,19 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="B122" s="1">
         <v>3</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1">
@@ -5488,19 +5494,19 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="B123" s="1">
         <v>4</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1">
@@ -5525,19 +5531,19 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="B124" s="1">
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1">
@@ -5562,19 +5568,19 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1">
@@ -5599,19 +5605,19 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="B126" s="1">
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1">
@@ -5636,19 +5642,19 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="B127" s="1">
         <v>3</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1">
@@ -5673,19 +5679,19 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="B128" s="1">
         <v>4</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1">
@@ -5710,19 +5716,19 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="B129" s="1">
         <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1">
@@ -5747,19 +5753,19 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="B130" s="1">
         <v>6</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1">
@@ -5783,6 +5789,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>